--- a/s9001731_Assign_3/Data/Ship Data.xlsx
+++ b/s9001731_Assign_3/Data/Ship Data.xlsx
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E765"/>
+  <dimension ref="A1:E766"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -13495,42 +13495,42 @@
     </row>
     <row outlineLevel="0" r="564">
       <c r="A564" s="4">
-        <v>74</v>
+        <v>788</v>
       </c>
       <c r="B564" s="5" t="inlineStr">
         <is>
-          <t>Puerto Rico</t>
+          <t>Provorny</t>
         </is>
       </c>
       <c r="C564" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D564" s="5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E564" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="565">
       <c r="A565" s="4">
-        <v>419</v>
+        <v>74</v>
       </c>
       <c r="B565" s="5" t="inlineStr">
         <is>
-          <t>Pyotr Bagration</t>
+          <t>Puerto Rico</t>
         </is>
       </c>
       <c r="C565" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D565" s="5" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="E565" s="7" t="inlineStr">
@@ -13541,15 +13541,15 @@
     </row>
     <row outlineLevel="0" r="566">
       <c r="A566" s="4">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="B566" s="5" t="inlineStr">
         <is>
-          <t>Pyotr Velikiy</t>
+          <t>Pyotr Bagration</t>
         </is>
       </c>
       <c r="C566" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D566" s="5" t="inlineStr">
         <is>
@@ -13558,25 +13558,25 @@
       </c>
       <c r="E566" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="567">
       <c r="A567" s="4">
-        <v>380</v>
+        <v>431</v>
       </c>
       <c r="B567" s="5" t="inlineStr">
         <is>
-          <t>Queen Elizabeth</t>
+          <t>Pyotr Velikiy</t>
         </is>
       </c>
       <c r="C567" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D567" s="5" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E567" s="7" t="inlineStr">
@@ -13587,15 +13587,15 @@
     </row>
     <row outlineLevel="0" r="568">
       <c r="A568" s="4">
-        <v>547</v>
+        <v>380</v>
       </c>
       <c r="B568" s="5" t="inlineStr">
         <is>
-          <t>Queen Mary</t>
+          <t>Queen Elizabeth</t>
         </is>
       </c>
       <c r="C568" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D568" s="5" t="inlineStr">
         <is>
@@ -13604,94 +13604,94 @@
       </c>
       <c r="E568" s="7" t="inlineStr">
         <is>
-          <t>Battle Cruiser</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="569">
       <c r="A569" s="4">
-        <v>683</v>
+        <v>547</v>
       </c>
       <c r="B569" s="5" t="inlineStr">
         <is>
-          <t>Ragnar</t>
+          <t>Queen Mary</t>
         </is>
       </c>
       <c r="C569" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D569" s="5" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="E569" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Battle Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="570">
       <c r="A570" s="4">
-        <v>465</v>
+        <v>683</v>
       </c>
       <c r="B570" s="5" t="inlineStr">
         <is>
-          <t>Ragnarok</t>
+          <t>Ragnar</t>
         </is>
       </c>
       <c r="C570" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D570" s="5" t="inlineStr">
         <is>
-          <t>Warhammer</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E570" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="571">
       <c r="A571" s="4">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="B571" s="5" t="inlineStr">
         <is>
-          <t>Rahmat</t>
+          <t>Ragnarok</t>
         </is>
       </c>
       <c r="C571" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D571" s="5" t="inlineStr">
         <is>
-          <t>Pan Asia</t>
+          <t>Warhammer</t>
         </is>
       </c>
       <c r="E571" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="572">
       <c r="A572" s="4">
-        <v>147</v>
+        <v>491</v>
       </c>
       <c r="B572" s="5" t="inlineStr">
         <is>
-          <t>Raimondo Montecuccoli</t>
+          <t>Rahmat</t>
         </is>
       </c>
       <c r="C572" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D572" s="5" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Pan Asia</t>
         </is>
       </c>
       <c r="E572" s="7" t="inlineStr">
@@ -13702,34 +13702,34 @@
     </row>
     <row outlineLevel="0" r="573">
       <c r="A573" s="4">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="B573" s="5" t="inlineStr">
         <is>
-          <t>Ranger</t>
+          <t>Raimondo Montecuccoli</t>
         </is>
       </c>
       <c r="C573" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D573" s="5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E573" s="7" t="inlineStr">
         <is>
-          <t>Aircraft Carrier</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="574">
       <c r="A574" s="4">
-        <v>542</v>
+        <v>90</v>
       </c>
       <c r="B574" s="5" t="inlineStr">
         <is>
-          <t>Renown</t>
+          <t>Ranger</t>
         </is>
       </c>
       <c r="C574" s="6">
@@ -13737,26 +13737,26 @@
       </c>
       <c r="D574" s="5" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="E574" s="7" t="inlineStr">
         <is>
-          <t>Battle Cruiser</t>
+          <t>Aircraft Carrier</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="575">
       <c r="A575" s="4">
-        <v>587</v>
+        <v>542</v>
       </c>
       <c r="B575" s="5" t="inlineStr">
         <is>
-          <t>Renown '44</t>
+          <t>Renown</t>
         </is>
       </c>
       <c r="C575" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D575" s="5" t="inlineStr">
         <is>
@@ -13771,42 +13771,42 @@
     </row>
     <row outlineLevel="0" r="576">
       <c r="A576" s="4">
-        <v>63</v>
+        <v>587</v>
       </c>
       <c r="B576" s="5" t="inlineStr">
         <is>
-          <t>Republique</t>
+          <t>Renown '44</t>
         </is>
       </c>
       <c r="C576" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D576" s="5" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="E576" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Battle Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="577">
       <c r="A577" s="4">
-        <v>482</v>
+        <v>63</v>
       </c>
       <c r="B577" s="5" t="inlineStr">
         <is>
-          <t>Repulse</t>
+          <t>Republique</t>
         </is>
       </c>
       <c r="C577" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D577" s="5" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E577" s="7" t="inlineStr">
@@ -13817,11 +13817,11 @@
     </row>
     <row outlineLevel="0" r="578">
       <c r="A578" s="4">
-        <v>668</v>
+        <v>482</v>
       </c>
       <c r="B578" s="5" t="inlineStr">
         <is>
-          <t>Repulse B</t>
+          <t>Repulse</t>
         </is>
       </c>
       <c r="C578" s="6">
@@ -13840,65 +13840,65 @@
     </row>
     <row outlineLevel="0" r="579">
       <c r="A579" s="4">
-        <v>73</v>
+        <v>668</v>
       </c>
       <c r="B579" s="5" t="inlineStr">
         <is>
-          <t>Rhein</t>
+          <t>Repulse B</t>
         </is>
       </c>
       <c r="C579" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D579" s="5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="E579" s="7" t="inlineStr">
         <is>
-          <t>Aircraft Carrier</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="580">
       <c r="A580" s="4">
-        <v>691</v>
+        <v>73</v>
       </c>
       <c r="B580" s="5" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Rhein</t>
         </is>
       </c>
       <c r="C580" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D580" s="5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E580" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Aircraft Carrier</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="581">
       <c r="A581" s="4">
-        <v>351</v>
+        <v>691</v>
       </c>
       <c r="B581" s="5" t="inlineStr">
         <is>
-          <t>Richelieu</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="C581" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D581" s="5" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="E581" s="7" t="inlineStr">
@@ -13909,111 +13909,111 @@
     </row>
     <row outlineLevel="0" r="582">
       <c r="A582" s="4">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="B582" s="5" t="inlineStr">
         <is>
-          <t>Riga</t>
+          <t>Richelieu</t>
         </is>
       </c>
       <c r="C582" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D582" s="5" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E582" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="583">
       <c r="A583" s="4">
-        <v>556</v>
+        <v>306</v>
       </c>
       <c r="B583" s="5" t="inlineStr">
         <is>
-          <t>Rio De Janeiro</t>
+          <t>Riga</t>
         </is>
       </c>
       <c r="C583" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D583" s="5" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E583" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="584">
       <c r="A584" s="4">
-        <v>424</v>
+        <v>556</v>
       </c>
       <c r="B584" s="5" t="inlineStr">
         <is>
-          <t>Rochester</t>
+          <t>Rio De Janeiro</t>
         </is>
       </c>
       <c r="C584" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D584" s="5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="E584" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="585">
       <c r="A585" s="4">
-        <v>715</v>
+        <v>424</v>
       </c>
       <c r="B585" s="5" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>Rochester</t>
         </is>
       </c>
       <c r="C585" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D585" s="5" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="E585" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="586">
       <c r="A586" s="4">
-        <v>427</v>
+        <v>715</v>
       </c>
       <c r="B586" s="5" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="C586" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D586" s="5" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="E586" s="7" t="inlineStr">
@@ -14024,195 +14024,195 @@
     </row>
     <row outlineLevel="0" r="587">
       <c r="A587" s="4">
-        <v>283</v>
+        <v>427</v>
       </c>
       <c r="B587" s="5" t="inlineStr">
         <is>
-          <t>Romulus</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="C587" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D587" s="5" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E587" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="588">
       <c r="A588" s="4">
-        <v>544</v>
+        <v>283</v>
       </c>
       <c r="B588" s="5" t="inlineStr">
         <is>
-          <t>Rooke</t>
+          <t>Romulus</t>
         </is>
       </c>
       <c r="C588" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D588" s="5" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E588" s="7" t="inlineStr">
         <is>
-          <t>Battle Cruiser</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="589">
       <c r="A589" s="4">
-        <v>312</v>
+        <v>544</v>
       </c>
       <c r="B589" s="5" t="inlineStr">
         <is>
-          <t>Roon</t>
+          <t>Rooke</t>
         </is>
       </c>
       <c r="C589" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D589" s="5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="E589" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Battle Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="590">
       <c r="A590" s="4">
-        <v>642</v>
+        <v>312</v>
       </c>
       <c r="B590" s="5" t="inlineStr">
         <is>
-          <t>Ruggiero di Lauria</t>
+          <t>Roon</t>
         </is>
       </c>
       <c r="C590" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D590" s="5" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E590" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="591">
       <c r="A591" s="4">
-        <v>91</v>
+        <v>642</v>
       </c>
       <c r="B591" s="5" t="inlineStr">
         <is>
-          <t>Ryujo</t>
+          <t>Ruggiero di Lauria</t>
         </is>
       </c>
       <c r="C591" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D591" s="5" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E591" s="7" t="inlineStr">
         <is>
-          <t>Aircraft Carrier</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="592">
       <c r="A592" s="4">
-        <v>560</v>
+        <v>91</v>
       </c>
       <c r="B592" s="5" t="inlineStr">
         <is>
-          <t>S-189</t>
+          <t>Ryujo</t>
         </is>
       </c>
       <c r="C592" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D592" s="5" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="E592" s="7" t="inlineStr">
         <is>
-          <t>Submarine</t>
+          <t>Aircraft Carrier</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="593">
       <c r="A593" s="4">
-        <v>24</v>
+        <v>560</v>
       </c>
       <c r="B593" s="5" t="inlineStr">
         <is>
-          <t>Saint-Louis</t>
+          <t>S-189</t>
         </is>
       </c>
       <c r="C593" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D593" s="5" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E593" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Submarine</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="594">
       <c r="A594" s="4">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B594" s="5" t="inlineStr">
         <is>
-          <t>Saipan</t>
+          <t>Saint-Louis</t>
         </is>
       </c>
       <c r="C594" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D594" s="5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E594" s="7" t="inlineStr">
         <is>
-          <t>Aircraft Carrier</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="595">
       <c r="A595" s="4">
-        <v>476</v>
+        <v>54</v>
       </c>
       <c r="B595" s="5" t="inlineStr">
         <is>
-          <t>Saipan B</t>
+          <t>Saipan</t>
         </is>
       </c>
       <c r="C595" s="6">
@@ -14231,15 +14231,15 @@
     </row>
     <row outlineLevel="0" r="596">
       <c r="A596" s="4">
-        <v>75</v>
+        <v>476</v>
       </c>
       <c r="B596" s="5" t="inlineStr">
         <is>
-          <t>Salem</t>
+          <t>Saipan B</t>
         </is>
       </c>
       <c r="C596" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D596" s="5" t="inlineStr">
         <is>
@@ -14248,21 +14248,21 @@
       </c>
       <c r="E596" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Aircraft Carrier</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="597">
       <c r="A597" s="4">
-        <v>386</v>
+        <v>75</v>
       </c>
       <c r="B597" s="5" t="inlineStr">
         <is>
-          <t>Salmon</t>
+          <t>Salem</t>
         </is>
       </c>
       <c r="C597" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D597" s="5" t="inlineStr">
         <is>
@@ -14271,17 +14271,17 @@
       </c>
       <c r="E597" s="7" t="inlineStr">
         <is>
-          <t>Submarine</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="598">
       <c r="A598" s="4">
-        <v>537</v>
+        <v>386</v>
       </c>
       <c r="B598" s="5" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>Salmon</t>
         </is>
       </c>
       <c r="C598" s="6">
@@ -14294,25 +14294,25 @@
       </c>
       <c r="E598" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Submarine</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="599">
       <c r="A599" s="4">
-        <v>611</v>
+        <v>537</v>
       </c>
       <c r="B599" s="5" t="inlineStr">
         <is>
-          <t>San Martin</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="C599" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D599" s="5" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="E599" s="7" t="inlineStr">
@@ -14323,19 +14323,19 @@
     </row>
     <row outlineLevel="0" r="600">
       <c r="A600" s="4">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B600" s="5" t="inlineStr">
         <is>
-          <t>Santander</t>
+          <t>San Martin</t>
         </is>
       </c>
       <c r="C600" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D600" s="5" t="inlineStr">
         <is>
-          <t>Columbia</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="E600" s="7" t="inlineStr">
@@ -14346,65 +14346,65 @@
     </row>
     <row outlineLevel="0" r="601">
       <c r="A601" s="4">
-        <v>352</v>
+        <v>610</v>
       </c>
       <c r="B601" s="5" t="inlineStr">
         <is>
-          <t>Sanzang</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="C601" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D601" s="5" t="inlineStr">
         <is>
-          <t>Pan Asia</t>
+          <t>Columbia</t>
         </is>
       </c>
       <c r="E601" s="7" t="inlineStr">
         <is>
-          <t>Aircraft Carrier</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="602">
       <c r="A602" s="4">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="B602" s="5" t="inlineStr">
         <is>
-          <t>Satsuma</t>
+          <t>Sanzang</t>
         </is>
       </c>
       <c r="C602" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D602" s="5" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Pan Asia</t>
         </is>
       </c>
       <c r="E602" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Aircraft Carrier</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="603">
       <c r="A603" s="4">
-        <v>652</v>
+        <v>331</v>
       </c>
       <c r="B603" s="5" t="inlineStr">
         <is>
-          <t>Scarlett Thunder</t>
+          <t>Satsuma</t>
         </is>
       </c>
       <c r="C603" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D603" s="5" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="E603" s="7" t="inlineStr">
@@ -14415,19 +14415,19 @@
     </row>
     <row outlineLevel="0" r="604">
       <c r="A604" s="4">
-        <v>242</v>
+        <v>652</v>
       </c>
       <c r="B604" s="5" t="inlineStr">
         <is>
-          <t>Scharnhorst</t>
+          <t>Scarlett Thunder</t>
         </is>
       </c>
       <c r="C604" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D604" s="5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="E604" s="7" t="inlineStr">
@@ -14438,11 +14438,11 @@
     </row>
     <row outlineLevel="0" r="605">
       <c r="A605" s="4">
-        <v>682</v>
+        <v>242</v>
       </c>
       <c r="B605" s="5" t="inlineStr">
         <is>
-          <t>Scharnhorst 43</t>
+          <t>Scharnhorst</t>
         </is>
       </c>
       <c r="C605" s="6">
@@ -14461,11 +14461,11 @@
     </row>
     <row outlineLevel="0" r="606">
       <c r="A606" s="4">
-        <v>245</v>
+        <v>682</v>
       </c>
       <c r="B606" s="5" t="inlineStr">
         <is>
-          <t>Scharnhorst B</t>
+          <t>Scharnhorst 43</t>
         </is>
       </c>
       <c r="C606" s="6">
@@ -14484,15 +14484,15 @@
     </row>
     <row outlineLevel="0" r="607">
       <c r="A607" s="4">
-        <v>659</v>
+        <v>245</v>
       </c>
       <c r="B607" s="5" t="inlineStr">
         <is>
-          <t>Schill</t>
+          <t>Scharnhorst B</t>
         </is>
       </c>
       <c r="C607" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D607" s="5" t="inlineStr">
         <is>
@@ -14501,21 +14501,21 @@
       </c>
       <c r="E607" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="608">
       <c r="A608" s="4">
-        <v>495</v>
+        <v>659</v>
       </c>
       <c r="B608" s="5" t="inlineStr">
         <is>
-          <t>Schlieffen</t>
+          <t>Schill</t>
         </is>
       </c>
       <c r="C608" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D608" s="5" t="inlineStr">
         <is>
@@ -14524,17 +14524,17 @@
       </c>
       <c r="E608" s="7" t="inlineStr">
         <is>
-          <t>Battle Cruiser</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="609">
       <c r="A609" s="4">
-        <v>768</v>
+        <v>495</v>
       </c>
       <c r="B609" s="5" t="inlineStr">
         <is>
-          <t>Seal</t>
+          <t>Schlieffen</t>
         </is>
       </c>
       <c r="C609" s="6">
@@ -14542,45 +14542,45 @@
       </c>
       <c r="D609" s="5" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E609" s="7" t="inlineStr">
         <is>
-          <t>Submarine</t>
+          <t>Battle Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="610">
       <c r="A610" s="4">
-        <v>42</v>
+        <v>768</v>
       </c>
       <c r="B610" s="5" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>Seal</t>
         </is>
       </c>
       <c r="C610" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D610" s="5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="E610" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Submarine</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="611">
       <c r="A611" s="4">
-        <v>492</v>
+        <v>42</v>
       </c>
       <c r="B611" s="5" t="inlineStr">
         <is>
-          <t>Sejong</t>
+          <t>Seattle</t>
         </is>
       </c>
       <c r="C611" s="6">
@@ -14588,7 +14588,7 @@
       </c>
       <c r="D611" s="5" t="inlineStr">
         <is>
-          <t>Pan Asia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="E611" s="7" t="inlineStr">
@@ -14599,42 +14599,42 @@
     </row>
     <row outlineLevel="0" r="612">
       <c r="A612" s="4">
-        <v>655</v>
+        <v>492</v>
       </c>
       <c r="B612" s="5" t="inlineStr">
         <is>
-          <t>Sekiryu</t>
+          <t>Sejong</t>
         </is>
       </c>
       <c r="C612" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D612" s="5" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Pan Asia</t>
         </is>
       </c>
       <c r="E612" s="7" t="inlineStr">
         <is>
-          <t>Aircraft Carrier</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="613">
       <c r="A613" s="4">
-        <v>417</v>
+        <v>655</v>
       </c>
       <c r="B613" s="5" t="inlineStr">
         <is>
-          <t>Serov</t>
+          <t>Sekiryu</t>
         </is>
       </c>
       <c r="C613" s="6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D613" s="5" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="E613" s="7" t="inlineStr">
@@ -14645,15 +14645,15 @@
     </row>
     <row outlineLevel="0" r="614">
       <c r="A614" s="4">
-        <v>675</v>
+        <v>417</v>
       </c>
       <c r="B614" s="5" t="inlineStr">
         <is>
-          <t>Sevastopol</t>
+          <t>Serov</t>
         </is>
       </c>
       <c r="C614" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D614" s="5" t="inlineStr">
         <is>
@@ -14662,21 +14662,21 @@
       </c>
       <c r="E614" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Aircraft Carrier</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="615">
       <c r="A615" s="4">
-        <v>186</v>
+        <v>675</v>
       </c>
       <c r="B615" s="5" t="inlineStr">
         <is>
-          <t>Shchors</t>
+          <t>Sevastopol</t>
         </is>
       </c>
       <c r="C615" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D615" s="5" t="inlineStr">
         <is>
@@ -14685,40 +14685,40 @@
       </c>
       <c r="E615" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="616">
       <c r="A616" s="4">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="B616" s="5" t="inlineStr">
         <is>
-          <t>Shikishima</t>
+          <t>Shchors</t>
         </is>
       </c>
       <c r="C616" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D616" s="5" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E616" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="617">
       <c r="A617" s="4">
-        <v>558</v>
+        <v>19</v>
       </c>
       <c r="B617" s="5" t="inlineStr">
         <is>
-          <t>Shimakaze</t>
+          <t>Shikishima</t>
         </is>
       </c>
       <c r="C617" s="6">
@@ -14731,21 +14731,21 @@
       </c>
       <c r="E617" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="618">
       <c r="A618" s="4">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="B618" s="5" t="inlineStr">
         <is>
-          <t>Shimanto</t>
+          <t>Shimakaze</t>
         </is>
       </c>
       <c r="C618" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D618" s="5" t="inlineStr">
         <is>
@@ -14754,21 +14754,21 @@
       </c>
       <c r="E618" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="619">
       <c r="A619" s="4">
-        <v>759</v>
+        <v>571</v>
       </c>
       <c r="B619" s="5" t="inlineStr">
         <is>
-          <t>Shinano</t>
+          <t>Shimanto</t>
         </is>
       </c>
       <c r="C619" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D619" s="5" t="inlineStr">
         <is>
@@ -14777,21 +14777,21 @@
       </c>
       <c r="E619" s="7" t="inlineStr">
         <is>
-          <t>Aircraft Carrier</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="620">
       <c r="A620" s="4">
-        <v>206</v>
+        <v>759</v>
       </c>
       <c r="B620" s="5" t="inlineStr">
         <is>
-          <t>Shinonome</t>
+          <t>Shinano</t>
         </is>
       </c>
       <c r="C620" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D620" s="5" t="inlineStr">
         <is>
@@ -14800,17 +14800,17 @@
       </c>
       <c r="E620" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Aircraft Carrier</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="621">
       <c r="A621" s="4">
-        <v>578</v>
+        <v>206</v>
       </c>
       <c r="B621" s="5" t="inlineStr">
         <is>
-          <t>Shinonome B</t>
+          <t>Shinonome</t>
         </is>
       </c>
       <c r="C621" s="6">
@@ -14829,19 +14829,19 @@
     </row>
     <row outlineLevel="0" r="622">
       <c r="A622" s="4">
-        <v>467</v>
+        <v>578</v>
       </c>
       <c r="B622" s="5" t="inlineStr">
         <is>
-          <t>Ship Smasha</t>
+          <t>Shinonome B</t>
         </is>
       </c>
       <c r="C622" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D622" s="5" t="inlineStr">
         <is>
-          <t>Warhammer</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="E622" s="7" t="inlineStr">
@@ -14852,19 +14852,19 @@
     </row>
     <row outlineLevel="0" r="623">
       <c r="A623" s="4">
-        <v>328</v>
+        <v>467</v>
       </c>
       <c r="B623" s="5" t="inlineStr">
         <is>
-          <t>Shiratsuyu</t>
+          <t>Ship Smasha</t>
         </is>
       </c>
       <c r="C623" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D623" s="5" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Warhammer</t>
         </is>
       </c>
       <c r="E623" s="7" t="inlineStr">
@@ -14875,15 +14875,15 @@
     </row>
     <row outlineLevel="0" r="624">
       <c r="A624" s="4">
-        <v>51</v>
+        <v>328</v>
       </c>
       <c r="B624" s="5" t="inlineStr">
         <is>
-          <t>Shokaku</t>
+          <t>Shiratsuyu</t>
         </is>
       </c>
       <c r="C624" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D624" s="5" t="inlineStr">
         <is>
@@ -14892,94 +14892,94 @@
       </c>
       <c r="E624" s="7" t="inlineStr">
         <is>
-          <t>Aircraft Carrier</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="625">
       <c r="A625" s="4">
-        <v>747</v>
+        <v>51</v>
       </c>
       <c r="B625" s="5" t="inlineStr">
         <is>
-          <t>Sicilia</t>
+          <t>Shokaku</t>
         </is>
       </c>
       <c r="C625" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D625" s="5" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="E625" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Aircraft Carrier</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="626">
       <c r="A626" s="4">
-        <v>550</v>
+        <v>747</v>
       </c>
       <c r="B626" s="5" t="inlineStr">
         <is>
-          <t>Siegfried</t>
+          <t>Sicilia</t>
         </is>
       </c>
       <c r="C626" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D626" s="5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E626" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="627">
       <c r="A627" s="4">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="B627" s="5" t="inlineStr">
         <is>
-          <t>Siliwangi</t>
+          <t>Siegfried</t>
         </is>
       </c>
       <c r="C627" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D627" s="5" t="inlineStr">
         <is>
-          <t>Indonesian</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E627" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="628">
       <c r="A628" s="4">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="B628" s="5" t="inlineStr">
         <is>
-          <t>Sims</t>
+          <t>Siliwangi</t>
         </is>
       </c>
       <c r="C628" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D628" s="5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Indonesian</t>
         </is>
       </c>
       <c r="E628" s="7" t="inlineStr">
@@ -14990,11 +14990,11 @@
     </row>
     <row outlineLevel="0" r="629">
       <c r="A629" s="4">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B629" s="5" t="inlineStr">
         <is>
-          <t>Sims B</t>
+          <t>Sims</t>
         </is>
       </c>
       <c r="C629" s="6">
@@ -15013,11 +15013,11 @@
     </row>
     <row outlineLevel="0" r="630">
       <c r="A630" s="4">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="B630" s="5" t="inlineStr">
         <is>
-          <t>Sinop</t>
+          <t>Sims B</t>
         </is>
       </c>
       <c r="C630" s="6">
@@ -15025,53 +15025,53 @@
       </c>
       <c r="D630" s="5" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="E630" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="631">
       <c r="A631" s="4">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="B631" s="5" t="inlineStr">
         <is>
-          <t>Siroco</t>
+          <t>Sinop</t>
         </is>
       </c>
       <c r="C631" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D631" s="5" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E631" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="632">
       <c r="A632" s="4">
-        <v>272</v>
+        <v>201</v>
       </c>
       <c r="B632" s="5" t="inlineStr">
         <is>
-          <t>Skane</t>
+          <t>Siroco</t>
         </is>
       </c>
       <c r="C632" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D632" s="5" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E632" s="7" t="inlineStr">
@@ -15082,34 +15082,34 @@
     </row>
     <row outlineLevel="0" r="633">
       <c r="A633" s="4">
-        <v>521</v>
+        <v>272</v>
       </c>
       <c r="B633" s="5" t="inlineStr">
         <is>
-          <t>Slava</t>
+          <t>Skane</t>
         </is>
       </c>
       <c r="C633" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D633" s="5" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E633" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="634">
       <c r="A634" s="4">
-        <v>22</v>
+        <v>521</v>
       </c>
       <c r="B634" s="5" t="inlineStr">
         <is>
-          <t>Smaland</t>
+          <t>Slava</t>
         </is>
       </c>
       <c r="C634" s="6">
@@ -15117,30 +15117,30 @@
       </c>
       <c r="D634" s="5" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E634" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="635">
       <c r="A635" s="4">
-        <v>393</v>
+        <v>22</v>
       </c>
       <c r="B635" s="5" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Smaland</t>
         </is>
       </c>
       <c r="C635" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D635" s="5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E635" s="7" t="inlineStr">
@@ -15151,34 +15151,34 @@
     </row>
     <row outlineLevel="0" r="636">
       <c r="A636" s="4">
-        <v>265</v>
+        <v>393</v>
       </c>
       <c r="B636" s="5" t="inlineStr">
         <is>
-          <t>Smolensk</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="C636" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D636" s="5" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="E636" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="637">
       <c r="A637" s="4">
-        <v>672</v>
+        <v>265</v>
       </c>
       <c r="B637" s="5" t="inlineStr">
         <is>
-          <t>Smolensk B</t>
+          <t>Smolensk</t>
         </is>
       </c>
       <c r="C637" s="6">
@@ -15197,11 +15197,11 @@
     </row>
     <row outlineLevel="0" r="638">
       <c r="A638" s="4">
-        <v>131</v>
+        <v>672</v>
       </c>
       <c r="B638" s="5" t="inlineStr">
         <is>
-          <t>Somers</t>
+          <t>Smolensk B</t>
         </is>
       </c>
       <c r="C638" s="6">
@@ -15209,30 +15209,30 @@
       </c>
       <c r="D638" s="5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E638" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="639">
       <c r="A639" s="4">
-        <v>640</v>
+        <v>131</v>
       </c>
       <c r="B639" s="5" t="inlineStr">
         <is>
-          <t>Somme</t>
+          <t>Somers</t>
         </is>
       </c>
       <c r="C639" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D639" s="5" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="E639" s="7" t="inlineStr">
@@ -15243,149 +15243,149 @@
     </row>
     <row outlineLevel="0" r="640">
       <c r="A640" s="4">
-        <v>484</v>
+        <v>640</v>
       </c>
       <c r="B640" s="5" t="inlineStr">
         <is>
-          <t>South Carolina</t>
+          <t>Somme</t>
         </is>
       </c>
       <c r="C640" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D640" s="5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="E640" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="641">
       <c r="A641" s="4">
-        <v>182</v>
+        <v>484</v>
       </c>
       <c r="B641" s="5" t="inlineStr">
         <is>
-          <t>Southern Dragon</t>
+          <t>South Carolina</t>
         </is>
       </c>
       <c r="C641" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D641" s="5" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="E641" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="642">
       <c r="A642" s="4">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="B642" s="5" t="inlineStr">
         <is>
-          <t>Sovetsky Soyuz</t>
+          <t>Southern Dragon</t>
         </is>
       </c>
       <c r="C642" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D642" s="5" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="E642" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="643">
       <c r="A643" s="4">
-        <v>626</v>
+        <v>133</v>
       </c>
       <c r="B643" s="5" t="inlineStr">
         <is>
-          <t>Split</t>
+          <t>Sovetsky Soyuz</t>
         </is>
       </c>
       <c r="C643" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D643" s="5" t="inlineStr">
         <is>
-          <t>Yugoslavia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E643" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="644">
       <c r="A644" s="4">
-        <v>342</v>
+        <v>626</v>
       </c>
       <c r="B644" s="5" t="inlineStr">
         <is>
-          <t>St. Louis</t>
+          <t>Split</t>
         </is>
       </c>
       <c r="C644" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D644" s="5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="E644" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="645">
       <c r="A645" s="4">
-        <v>594</v>
+        <v>342</v>
       </c>
       <c r="B645" s="5" t="inlineStr">
         <is>
-          <t>St. Vincent</t>
+          <t>St. Louis</t>
         </is>
       </c>
       <c r="C645" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D645" s="5" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="E645" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="646">
       <c r="A646" s="4">
-        <v>345</v>
+        <v>594</v>
       </c>
       <c r="B646" s="5" t="inlineStr">
         <is>
-          <t>Stalingrad</t>
+          <t>St. Vincent</t>
         </is>
       </c>
       <c r="C646" s="6">
@@ -15393,49 +15393,49 @@
       </c>
       <c r="D646" s="5" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="E646" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="647">
       <c r="A647" s="4">
-        <v>617</v>
+        <v>345</v>
       </c>
       <c r="B647" s="5" t="inlineStr">
         <is>
-          <t>Stord</t>
+          <t>Stalingrad</t>
         </is>
       </c>
       <c r="C647" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D647" s="5" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E647" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="648">
       <c r="A648" s="4">
-        <v>687</v>
+        <v>617</v>
       </c>
       <c r="B648" s="5" t="inlineStr">
         <is>
-          <t>Stord 43</t>
+          <t>Stord</t>
         </is>
       </c>
       <c r="C648" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D648" s="5" t="inlineStr">
         <is>
@@ -15450,11 +15450,11 @@
     </row>
     <row outlineLevel="0" r="649">
       <c r="A649" s="4">
-        <v>250</v>
+        <v>687</v>
       </c>
       <c r="B649" s="5" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Stord 43</t>
         </is>
       </c>
       <c r="C649" s="6">
@@ -15462,168 +15462,168 @@
       </c>
       <c r="D649" s="5" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E649" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="650">
       <c r="A650" s="4">
-        <v>618</v>
+        <v>250</v>
       </c>
       <c r="B650" s="5" t="inlineStr">
         <is>
-          <t>Sturdy</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="C650" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D650" s="5" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E650" s="7" t="inlineStr">
         <is>
-          <t>Submarine</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="651">
       <c r="A651" s="4">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="B651" s="5" t="inlineStr">
         <is>
-          <t>Sun Yat-Sen</t>
+          <t>Sturdy</t>
         </is>
       </c>
       <c r="C651" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D651" s="5" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="E651" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Submarine</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="652">
       <c r="A652" s="4">
-        <v>78</v>
+        <v>598</v>
       </c>
       <c r="B652" s="5" t="inlineStr">
         <is>
-          <t>Surrey</t>
+          <t>Sun Yat-Sen</t>
         </is>
       </c>
       <c r="C652" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D652" s="5" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="E652" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="653">
       <c r="A653" s="4">
-        <v>735</v>
+        <v>78</v>
       </c>
       <c r="B653" s="5" t="inlineStr">
         <is>
-          <t>Sutlej</t>
+          <t>Surrey</t>
         </is>
       </c>
       <c r="C653" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D653" s="5" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="E653" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="654">
       <c r="A654" s="4">
-        <v>782</v>
+        <v>735</v>
       </c>
       <c r="B654" s="5" t="inlineStr">
         <is>
-          <t>Suzuya</t>
+          <t>Sutlej</t>
         </is>
       </c>
       <c r="C654" s="6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D654" s="5" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>India</t>
         </is>
       </c>
       <c r="E654" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="655">
       <c r="A655" s="4">
-        <v>756</v>
+        <v>782</v>
       </c>
       <c r="B655" s="5" t="inlineStr">
         <is>
-          <t>Svea</t>
+          <t>Suzuya</t>
         </is>
       </c>
       <c r="C655" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D655" s="5" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="E655" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="656">
       <c r="A656" s="4">
-        <v>364</v>
+        <v>756</v>
       </c>
       <c r="B656" s="5" t="inlineStr">
         <is>
-          <t>Svietlana</t>
+          <t>Svea</t>
         </is>
       </c>
       <c r="C656" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D656" s="5" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E656" s="7" t="inlineStr">
@@ -15634,61 +15634,61 @@
     </row>
     <row outlineLevel="0" r="657">
       <c r="A657" s="4">
-        <v>460</v>
+        <v>364</v>
       </c>
       <c r="B657" s="5" t="inlineStr">
         <is>
-          <t>Svyatozar</t>
+          <t>Svietlana</t>
         </is>
       </c>
       <c r="C657" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D657" s="5" t="inlineStr">
         <is>
-          <t>Halloween</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E657" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="658">
       <c r="A658" s="4">
-        <v>198</v>
+        <v>460</v>
       </c>
       <c r="B658" s="5" t="inlineStr">
         <is>
-          <t>T-22</t>
+          <t>Svyatozar</t>
         </is>
       </c>
       <c r="C658" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D658" s="5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Halloween</t>
         </is>
       </c>
       <c r="E658" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="659">
       <c r="A659" s="4">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B659" s="5" t="inlineStr">
         <is>
-          <t>T-61</t>
+          <t>T-22</t>
         </is>
       </c>
       <c r="C659" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D659" s="5" t="inlineStr">
         <is>
@@ -15703,57 +15703,57 @@
     </row>
     <row outlineLevel="0" r="660">
       <c r="A660" s="4">
-        <v>771</v>
+        <v>211</v>
       </c>
       <c r="B660" s="5" t="inlineStr">
         <is>
-          <t>Taihang</t>
+          <t>T-61</t>
         </is>
       </c>
       <c r="C660" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D660" s="5" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E660" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="661">
       <c r="A661" s="4">
-        <v>572</v>
+        <v>771</v>
       </c>
       <c r="B661" s="5" t="inlineStr">
         <is>
-          <t>Takahashi</t>
+          <t>Taihang</t>
         </is>
       </c>
       <c r="C661" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D661" s="5" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="E661" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="662">
       <c r="A662" s="4">
-        <v>408</v>
+        <v>572</v>
       </c>
       <c r="B662" s="5" t="inlineStr">
         <is>
-          <t>Tallinn</t>
+          <t>Takahashi</t>
         </is>
       </c>
       <c r="C662" s="6">
@@ -15761,72 +15761,72 @@
       </c>
       <c r="D662" s="5" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="E662" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="663">
       <c r="A663" s="4">
-        <v>222</v>
+        <v>408</v>
       </c>
       <c r="B663" s="5" t="inlineStr">
         <is>
-          <t>Taranto</t>
+          <t>Tallinn</t>
         </is>
       </c>
       <c r="C663" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D663" s="5" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E663" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="664">
       <c r="A664" s="4">
-        <v>439</v>
+        <v>222</v>
       </c>
       <c r="B664" s="5" t="inlineStr">
         <is>
-          <t>Tashkent</t>
+          <t>Taranto</t>
         </is>
       </c>
       <c r="C664" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D664" s="5" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E664" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="665">
       <c r="A665" s="4">
-        <v>612</v>
+        <v>439</v>
       </c>
       <c r="B665" s="5" t="inlineStr">
         <is>
-          <t>Tashkent 39</t>
+          <t>Tashkent</t>
         </is>
       </c>
       <c r="C665" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D665" s="5" t="inlineStr">
         <is>
@@ -15841,19 +15841,19 @@
     </row>
     <row outlineLevel="0" r="666">
       <c r="A666" s="4">
-        <v>378</v>
+        <v>612</v>
       </c>
       <c r="B666" s="5" t="inlineStr">
         <is>
-          <t>Tatra</t>
+          <t>Tashkent 39</t>
         </is>
       </c>
       <c r="C666" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D666" s="5" t="inlineStr">
         <is>
-          <t>Austro_Hungary</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E666" s="7" t="inlineStr">
@@ -15864,42 +15864,42 @@
     </row>
     <row outlineLevel="0" r="667">
       <c r="A667" s="4">
-        <v>755</v>
+        <v>378</v>
       </c>
       <c r="B667" s="5" t="inlineStr">
         <is>
-          <t>Teng She</t>
+          <t>Tatra</t>
         </is>
       </c>
       <c r="C667" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D667" s="5" t="inlineStr">
         <is>
-          <t>Tai Wan</t>
+          <t>Austro_Hungary</t>
         </is>
       </c>
       <c r="E667" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="668">
       <c r="A668" s="4">
-        <v>741</v>
+        <v>755</v>
       </c>
       <c r="B668" s="5" t="inlineStr">
         <is>
-          <t>Tennessee</t>
+          <t>Teng She</t>
         </is>
       </c>
       <c r="C668" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D668" s="5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Tai Wan</t>
         </is>
       </c>
       <c r="E668" s="7" t="inlineStr">
@@ -15910,84 +15910,84 @@
     </row>
     <row outlineLevel="0" r="669">
       <c r="A669" s="4">
-        <v>366</v>
+        <v>741</v>
       </c>
       <c r="B669" s="5" t="inlineStr">
         <is>
-          <t>Tenryu</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="C669" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D669" s="5" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="E669" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="670">
       <c r="A670" s="4">
-        <v>124</v>
+        <v>366</v>
       </c>
       <c r="B670" s="5" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>Tenryu</t>
         </is>
       </c>
       <c r="C670" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D670" s="5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="E670" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="671">
       <c r="A671" s="4">
-        <v>731</v>
+        <v>124</v>
       </c>
       <c r="B671" s="5" t="inlineStr">
         <is>
-          <t>Theseus</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="C671" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D671" s="5" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="E671" s="7" t="inlineStr">
         <is>
-          <t>Aircraft Carrier</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="672">
       <c r="A672" s="4">
-        <v>36</v>
+        <v>731</v>
       </c>
       <c r="B672" s="5" t="inlineStr">
         <is>
-          <t>Thunderer</t>
+          <t>Theseus</t>
         </is>
       </c>
       <c r="C672" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D672" s="5" t="inlineStr">
         <is>
@@ -15996,67 +15996,67 @@
       </c>
       <c r="E672" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Aircraft Carrier</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="673">
       <c r="A673" s="4">
-        <v>751</v>
+        <v>36</v>
       </c>
       <c r="B673" s="5" t="inlineStr">
         <is>
-          <t>Tianjin</t>
+          <t>Thunderer</t>
         </is>
       </c>
       <c r="C673" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D673" s="5" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="E673" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="674">
       <c r="A674" s="4">
-        <v>543</v>
+        <v>751</v>
       </c>
       <c r="B674" s="5" t="inlineStr">
         <is>
-          <t>Tiger</t>
+          <t>Tianjin</t>
         </is>
       </c>
       <c r="C674" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D674" s="5" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="E674" s="7" t="inlineStr">
         <is>
-          <t>Battle Cruiser</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="675">
       <c r="A675" s="4">
-        <v>277</v>
+        <v>543</v>
       </c>
       <c r="B675" s="5" t="inlineStr">
         <is>
-          <t>Tiger 59</t>
+          <t>Tiger</t>
         </is>
       </c>
       <c r="C675" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D675" s="5" t="inlineStr">
         <is>
@@ -16065,17 +16065,17 @@
       </c>
       <c r="E675" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Battle Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="676">
       <c r="A676" s="4">
-        <v>429</v>
+        <v>277</v>
       </c>
       <c r="B676" s="5" t="inlineStr">
         <is>
-          <t>Tirpitz</t>
+          <t>Tiger 59</t>
         </is>
       </c>
       <c r="C676" s="6">
@@ -16083,22 +16083,22 @@
       </c>
       <c r="D676" s="5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="E676" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="677">
       <c r="A677" s="4">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B677" s="5" t="inlineStr">
         <is>
-          <t>Tirpitz B</t>
+          <t>Tirpitz</t>
         </is>
       </c>
       <c r="C677" s="6">
@@ -16117,38 +16117,38 @@
     </row>
     <row outlineLevel="0" r="678">
       <c r="A678" s="4">
-        <v>583</v>
+        <v>430</v>
       </c>
       <c r="B678" s="5" t="inlineStr">
         <is>
-          <t>Tokachi</t>
+          <t>Tirpitz B</t>
         </is>
       </c>
       <c r="C678" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D678" s="5" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E678" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="679">
       <c r="A679" s="4">
-        <v>332</v>
+        <v>583</v>
       </c>
       <c r="B679" s="5" t="inlineStr">
         <is>
-          <t>Tone</t>
+          <t>Tokachi</t>
         </is>
       </c>
       <c r="C679" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D679" s="5" t="inlineStr">
         <is>
@@ -16157,48 +16157,48 @@
       </c>
       <c r="E679" s="7" t="inlineStr">
         <is>
-          <t>Hybrid Cruiser</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="680">
       <c r="A680" s="4">
-        <v>522</v>
+        <v>332</v>
       </c>
       <c r="B680" s="5" t="inlineStr">
         <is>
-          <t>Toulon</t>
+          <t>Tone</t>
         </is>
       </c>
       <c r="C680" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D680" s="5" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="E680" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Hybrid Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="681">
       <c r="A681" s="4">
-        <v>152</v>
+        <v>522</v>
       </c>
       <c r="B681" s="5" t="inlineStr">
         <is>
-          <t>Trento</t>
+          <t>Toulon</t>
         </is>
       </c>
       <c r="C681" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D681" s="5" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E681" s="7" t="inlineStr">
@@ -16209,57 +16209,57 @@
     </row>
     <row outlineLevel="0" r="682">
       <c r="A682" s="4">
-        <v>588</v>
+        <v>152</v>
       </c>
       <c r="B682" s="5" t="inlineStr">
         <is>
-          <t>Tromp</t>
+          <t>Trento</t>
         </is>
       </c>
       <c r="C682" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D682" s="5" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E682" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="683">
       <c r="A683" s="4">
-        <v>665</v>
+        <v>588</v>
       </c>
       <c r="B683" s="5" t="inlineStr">
         <is>
-          <t>Tsurugi</t>
+          <t>Tromp</t>
         </is>
       </c>
       <c r="C683" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D683" s="5" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E683" s="7" t="inlineStr">
         <is>
-          <t>Battle Cruiser</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="684">
       <c r="A684" s="4">
-        <v>471</v>
+        <v>665</v>
       </c>
       <c r="B684" s="5" t="inlineStr">
         <is>
-          <t>Tulsa</t>
+          <t>Tsurugi</t>
         </is>
       </c>
       <c r="C684" s="6">
@@ -16267,95 +16267,95 @@
       </c>
       <c r="D684" s="5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="E684" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Battle Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="685">
       <c r="A685" s="4">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="B685" s="5" t="inlineStr">
         <is>
-          <t>Turbine</t>
+          <t>Tulsa</t>
         </is>
       </c>
       <c r="C685" s="6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D685" s="5" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="E685" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="686">
       <c r="A686" s="4">
-        <v>340</v>
+        <v>502</v>
       </c>
       <c r="B686" s="5" t="inlineStr">
         <is>
-          <t>Turenne</t>
+          <t>Turbine</t>
         </is>
       </c>
       <c r="C686" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D686" s="5" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E686" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="687">
       <c r="A687" s="4">
-        <v>414</v>
+        <v>340</v>
       </c>
       <c r="B687" s="5" t="inlineStr">
         <is>
-          <t>U-190</t>
+          <t>Turenne</t>
         </is>
       </c>
       <c r="C687" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D687" s="5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E687" s="7" t="inlineStr">
         <is>
-          <t>Submarine</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="688">
       <c r="A688" s="4">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="B688" s="5" t="inlineStr">
         <is>
-          <t>U-69</t>
+          <t>U-190</t>
         </is>
       </c>
       <c r="C688" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D688" s="5" t="inlineStr">
         <is>
@@ -16370,218 +16370,218 @@
     </row>
     <row outlineLevel="0" r="689">
       <c r="A689" s="4">
-        <v>585</v>
+        <v>396</v>
       </c>
       <c r="B689" s="5" t="inlineStr">
         <is>
-          <t>Udaloi</t>
+          <t>U-69</t>
         </is>
       </c>
       <c r="C689" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D689" s="5" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E689" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Submarine</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="690">
       <c r="A690" s="4">
-        <v>700</v>
+        <v>585</v>
       </c>
       <c r="B690" s="5" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Udaloi</t>
         </is>
       </c>
       <c r="C690" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D690" s="5" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E690" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="691">
       <c r="A691" s="4">
-        <v>377</v>
+        <v>700</v>
       </c>
       <c r="B691" s="5" t="inlineStr">
         <is>
-          <t>Umikaze</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="C691" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D691" s="5" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="E691" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="692">
       <c r="A692" s="4">
-        <v>603</v>
+        <v>377</v>
       </c>
       <c r="B692" s="5" t="inlineStr">
         <is>
-          <t>Undine</t>
+          <t>Umikaze</t>
         </is>
       </c>
       <c r="C692" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D692" s="5" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="E692" s="7" t="inlineStr">
         <is>
-          <t>Submarine</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="693">
       <c r="A693" s="4">
-        <v>504</v>
+        <v>603</v>
       </c>
       <c r="B693" s="5" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Undine</t>
         </is>
       </c>
       <c r="C693" s="6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D693" s="5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="E693" s="7" t="inlineStr">
         <is>
-          <t>Aircraft Carrier</t>
+          <t>Submarine</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="694">
       <c r="A694" s="4">
-        <v>459</v>
+        <v>504</v>
       </c>
       <c r="B694" s="5" t="inlineStr">
         <is>
-          <t>Urashima</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="C694" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D694" s="5" t="inlineStr">
         <is>
-          <t>Halloween</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="E694" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Aircraft Carrier</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="695">
       <c r="A695" s="4">
-        <v>778</v>
+        <v>459</v>
       </c>
       <c r="B695" s="5" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Urashima</t>
         </is>
       </c>
       <c r="C695" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D695" s="5" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Halloween</t>
         </is>
       </c>
       <c r="E695" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="696">
       <c r="A696" s="4">
-        <v>326</v>
+        <v>778</v>
       </c>
       <c r="B696" s="5" t="inlineStr">
         <is>
-          <t>V-25</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="C696" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D696" s="5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E696" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="697">
       <c r="A697" s="4">
-        <v>449</v>
+        <v>326</v>
       </c>
       <c r="B697" s="5" t="inlineStr">
         <is>
-          <t>Valkyrie</t>
+          <t>V-25</t>
         </is>
       </c>
       <c r="C697" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D697" s="5" t="inlineStr">
         <is>
-          <t>Twilight</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E697" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="698">
       <c r="A698" s="4">
-        <v>781</v>
+        <v>449</v>
       </c>
       <c r="B698" s="5" t="inlineStr">
         <is>
-          <t>Valparaiso</t>
+          <t>Valkyrie</t>
         </is>
       </c>
       <c r="C698" s="6">
@@ -16589,49 +16589,49 @@
       </c>
       <c r="D698" s="5" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Twilight</t>
         </is>
       </c>
       <c r="E698" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="699">
       <c r="A699" s="4">
-        <v>141</v>
+        <v>781</v>
       </c>
       <c r="B699" s="5" t="inlineStr">
         <is>
-          <t>Vampire</t>
+          <t>Valparaiso</t>
         </is>
       </c>
       <c r="C699" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D699" s="5" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="E699" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="700">
       <c r="A700" s="4">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B700" s="5" t="inlineStr">
         <is>
-          <t>Vampire II</t>
+          <t>Vampire</t>
         </is>
       </c>
       <c r="C700" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D700" s="5" t="inlineStr">
         <is>
@@ -16646,38 +16646,38 @@
     </row>
     <row outlineLevel="0" r="701">
       <c r="A701" s="4">
-        <v>403</v>
+        <v>142</v>
       </c>
       <c r="B701" s="5" t="inlineStr">
         <is>
-          <t>Van Kinsbergen</t>
+          <t>Vampire II</t>
         </is>
       </c>
       <c r="C701" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D701" s="5" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="E701" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="702">
       <c r="A702" s="4">
-        <v>762</v>
+        <v>403</v>
       </c>
       <c r="B702" s="5" t="inlineStr">
         <is>
-          <t>Van Speijk</t>
+          <t>Van Kinsbergen</t>
         </is>
       </c>
       <c r="C702" s="6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D702" s="5" t="inlineStr">
         <is>
@@ -16686,94 +16686,94 @@
       </c>
       <c r="E702" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="703">
       <c r="A703" s="4">
-        <v>71</v>
+        <v>762</v>
       </c>
       <c r="B703" s="5" t="inlineStr">
         <is>
-          <t>Vanguard</t>
+          <t>Van Speijk</t>
         </is>
       </c>
       <c r="C703" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D703" s="5" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E703" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="704">
       <c r="A704" s="4">
-        <v>390</v>
+        <v>71</v>
       </c>
       <c r="B704" s="5" t="inlineStr">
         <is>
-          <t>Varyag</t>
+          <t>Vanguard</t>
         </is>
       </c>
       <c r="C704" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D704" s="5" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="E704" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="705">
       <c r="A705" s="4">
-        <v>218</v>
+        <v>390</v>
       </c>
       <c r="B705" s="5" t="inlineStr">
         <is>
-          <t>Vasteras</t>
+          <t>Varyag</t>
         </is>
       </c>
       <c r="C705" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D705" s="5" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E705" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="706">
       <c r="A706" s="4">
-        <v>321</v>
+        <v>218</v>
       </c>
       <c r="B706" s="5" t="inlineStr">
         <is>
-          <t>Vauquelin</t>
+          <t>Vasteras</t>
         </is>
       </c>
       <c r="C706" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D706" s="5" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E706" s="7" t="inlineStr">
@@ -16784,19 +16784,19 @@
     </row>
     <row outlineLevel="0" r="707">
       <c r="A707" s="4">
-        <v>567</v>
+        <v>321</v>
       </c>
       <c r="B707" s="5" t="inlineStr">
         <is>
-          <t>Velos</t>
+          <t>Vauquelin</t>
         </is>
       </c>
       <c r="C707" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D707" s="5" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E707" s="7" t="inlineStr">
@@ -16807,34 +16807,34 @@
     </row>
     <row outlineLevel="0" r="708">
       <c r="A708" s="4">
-        <v>140</v>
+        <v>567</v>
       </c>
       <c r="B708" s="5" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Velos</t>
         </is>
       </c>
       <c r="C708" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D708" s="5" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="E708" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="709">
       <c r="A709" s="4">
-        <v>311</v>
+        <v>140</v>
       </c>
       <c r="B709" s="5" t="inlineStr">
         <is>
-          <t>Vermont</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="C709" s="6">
@@ -16842,76 +16842,76 @@
       </c>
       <c r="D709" s="5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E709" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="710">
       <c r="A710" s="4">
-        <v>674</v>
+        <v>311</v>
       </c>
       <c r="B710" s="5" t="inlineStr">
         <is>
-          <t>Vicente Guerrero</t>
+          <t>Vermont</t>
         </is>
       </c>
       <c r="C710" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D710" s="5" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="E710" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="711">
       <c r="A711" s="4">
-        <v>734</v>
+        <v>674</v>
       </c>
       <c r="B711" s="5" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C711" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D711" s="5" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="E711" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="712">
       <c r="A712" s="4">
-        <v>355</v>
+        <v>734</v>
       </c>
       <c r="B712" s="5" t="inlineStr">
         <is>
-          <t>Viribus Unitus</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C712" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D712" s="5" t="inlineStr">
         <is>
-          <t>Austro-Hungary</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E712" s="7" t="inlineStr">
@@ -16922,11 +16922,11 @@
     </row>
     <row outlineLevel="0" r="713">
       <c r="A713" s="4">
-        <v>203</v>
+        <v>355</v>
       </c>
       <c r="B713" s="5" t="inlineStr">
         <is>
-          <t>Visby</t>
+          <t>Viribus Unitus</t>
         </is>
       </c>
       <c r="C713" s="6">
@@ -16934,30 +16934,30 @@
       </c>
       <c r="D713" s="5" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Austro-Hungary</t>
         </is>
       </c>
       <c r="E713" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="714">
       <c r="A714" s="4">
-        <v>511</v>
+        <v>203</v>
       </c>
       <c r="B714" s="5" t="inlineStr">
         <is>
-          <t>Vittorio Cuneberti</t>
+          <t>Visby</t>
         </is>
       </c>
       <c r="C714" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D714" s="5" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E714" s="7" t="inlineStr">
@@ -16968,11 +16968,11 @@
     </row>
     <row outlineLevel="0" r="715">
       <c r="A715" s="4">
-        <v>440</v>
+        <v>511</v>
       </c>
       <c r="B715" s="5" t="inlineStr">
         <is>
-          <t>Vittorio Veneto</t>
+          <t>Vittorio Cuneberti</t>
         </is>
       </c>
       <c r="C715" s="6">
@@ -16985,17 +16985,17 @@
       </c>
       <c r="E715" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="716">
       <c r="A716" s="4">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="B716" s="5" t="inlineStr">
         <is>
-          <t>Vladivostok</t>
+          <t>Vittorio Veneto</t>
         </is>
       </c>
       <c r="C716" s="6">
@@ -17003,7 +17003,7 @@
       </c>
       <c r="D716" s="5" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E716" s="7" t="inlineStr">
@@ -17014,107 +17014,107 @@
     </row>
     <row outlineLevel="0" r="717">
       <c r="A717" s="4">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="B717" s="5" t="inlineStr">
         <is>
-          <t>Von der Tann</t>
+          <t>Vladivostok</t>
         </is>
       </c>
       <c r="C717" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D717" s="5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E717" s="7" t="inlineStr">
         <is>
-          <t>Battle Cruiser</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="718">
       <c r="A718" s="4">
-        <v>765</v>
+        <v>436</v>
       </c>
       <c r="B718" s="5" t="inlineStr">
         <is>
-          <t>Vrijheid</t>
+          <t>Von der Tann</t>
         </is>
       </c>
       <c r="C718" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D718" s="5" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E718" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Battle Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="719">
       <c r="A719" s="4">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="B719" s="5" t="inlineStr">
         <is>
-          <t>Vyazma</t>
+          <t>Vrijheid</t>
         </is>
       </c>
       <c r="C719" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D719" s="5" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E719" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="720">
       <c r="A720" s="4">
-        <v>391</v>
+        <v>779</v>
       </c>
       <c r="B720" s="5" t="inlineStr">
         <is>
-          <t>Wakeful</t>
+          <t>Vyazma</t>
         </is>
       </c>
       <c r="C720" s="6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D720" s="5" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E720" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="721">
       <c r="A721" s="4">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="B721" s="5" t="inlineStr">
         <is>
-          <t>Warspite</t>
+          <t>Wakeful</t>
         </is>
       </c>
       <c r="C721" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D721" s="5" t="inlineStr">
         <is>
@@ -17123,44 +17123,44 @@
       </c>
       <c r="E721" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="722">
       <c r="A722" s="4">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B722" s="5" t="inlineStr">
         <is>
-          <t>Weimar</t>
+          <t>Warspite</t>
         </is>
       </c>
       <c r="C722" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D722" s="5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="E722" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="723">
       <c r="A723" s="4">
-        <v>89</v>
+        <v>358</v>
       </c>
       <c r="B723" s="5" t="inlineStr">
         <is>
-          <t>Weser</t>
+          <t>Weimar</t>
         </is>
       </c>
       <c r="C723" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D723" s="5" t="inlineStr">
         <is>
@@ -17169,17 +17169,17 @@
       </c>
       <c r="E723" s="7" t="inlineStr">
         <is>
-          <t>Aircraft Carrier</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="724">
       <c r="A724" s="4">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="B724" s="5" t="inlineStr">
         <is>
-          <t>West Virginia 1941</t>
+          <t>Weser</t>
         </is>
       </c>
       <c r="C724" s="6">
@@ -17187,26 +17187,26 @@
       </c>
       <c r="D724" s="5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E724" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Aircraft Carrier</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="725">
       <c r="A725" s="4">
-        <v>628</v>
+        <v>128</v>
       </c>
       <c r="B725" s="5" t="inlineStr">
         <is>
-          <t>West Virginia 44</t>
+          <t>West Virginia 1941</t>
         </is>
       </c>
       <c r="C725" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D725" s="5" t="inlineStr">
         <is>
@@ -17221,80 +17221,80 @@
     </row>
     <row outlineLevel="0" r="726">
       <c r="A726" s="4">
-        <v>773</v>
+        <v>628</v>
       </c>
       <c r="B726" s="5" t="inlineStr">
         <is>
-          <t>Weymouth</t>
+          <t>West Virginia 44</t>
         </is>
       </c>
       <c r="C726" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D726" s="5" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="E726" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="727">
       <c r="A727" s="4">
-        <v>453</v>
+        <v>773</v>
       </c>
       <c r="B727" s="5" t="inlineStr">
         <is>
-          <t>Whirlwind</t>
+          <t>Weymouth</t>
         </is>
       </c>
       <c r="C727" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D727" s="5" t="inlineStr">
         <is>
-          <t>Twilight</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="E727" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="728">
       <c r="A728" s="4">
-        <v>111</v>
+        <v>453</v>
       </c>
       <c r="B728" s="5" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Whirlwind</t>
         </is>
       </c>
       <c r="C728" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D728" s="5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Twilight</t>
         </is>
       </c>
       <c r="E728" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="729">
       <c r="A729" s="4">
-        <v>704</v>
+        <v>111</v>
       </c>
       <c r="B729" s="5" t="inlineStr">
         <is>
-          <t>Wiesbaden</t>
+          <t>Wichita</t>
         </is>
       </c>
       <c r="C729" s="6">
@@ -17302,45 +17302,45 @@
       </c>
       <c r="D729" s="5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="E729" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="730">
       <c r="A730" s="4">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B730" s="5" t="inlineStr">
         <is>
-          <t>Wisconsin</t>
+          <t>Wiesbaden</t>
         </is>
       </c>
       <c r="C730" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D730" s="5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E730" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="731">
       <c r="A731" s="4">
-        <v>445</v>
+        <v>707</v>
       </c>
       <c r="B731" s="5" t="inlineStr">
         <is>
-          <t>Worcester</t>
+          <t>Wisconsin</t>
         </is>
       </c>
       <c r="C731" s="6">
@@ -17353,44 +17353,44 @@
       </c>
       <c r="E731" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="732">
       <c r="A732" s="4">
-        <v>129</v>
+        <v>445</v>
       </c>
       <c r="B732" s="5" t="inlineStr">
         <is>
-          <t>Wujing</t>
+          <t>Worcester</t>
         </is>
       </c>
       <c r="C732" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D732" s="5" t="inlineStr">
         <is>
-          <t>Pan Asia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="E732" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="733">
       <c r="A733" s="4">
-        <v>264</v>
+        <v>129</v>
       </c>
       <c r="B733" s="5" t="inlineStr">
         <is>
-          <t>Wukong</t>
+          <t>Wujing</t>
         </is>
       </c>
       <c r="C733" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D733" s="5" t="inlineStr">
         <is>
@@ -17399,67 +17399,67 @@
       </c>
       <c r="E733" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="734">
       <c r="A734" s="4">
-        <v>722</v>
+        <v>264</v>
       </c>
       <c r="B734" s="5" t="inlineStr">
         <is>
-          <t>Xuan Wu</t>
+          <t>Wukong</t>
         </is>
       </c>
       <c r="C734" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D734" s="5" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Pan Asia</t>
         </is>
       </c>
       <c r="E734" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="735">
       <c r="A735" s="4">
-        <v>99</v>
+        <v>722</v>
       </c>
       <c r="B735" s="5" t="inlineStr">
         <is>
-          <t>Yahagi</t>
+          <t>Xuan Wu</t>
         </is>
       </c>
       <c r="C735" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D735" s="5" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="E735" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="736">
       <c r="A736" s="4">
-        <v>473</v>
+        <v>99</v>
       </c>
       <c r="B736" s="5" t="inlineStr">
         <is>
-          <t>Yamagiri</t>
+          <t>Yahagi</t>
         </is>
       </c>
       <c r="C736" s="6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D736" s="5" t="inlineStr">
         <is>
@@ -17468,21 +17468,21 @@
       </c>
       <c r="E736" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="737">
       <c r="A737" s="4">
-        <v>530</v>
+        <v>473</v>
       </c>
       <c r="B737" s="5" t="inlineStr">
         <is>
-          <t>Yamato</t>
+          <t>Yamagiri</t>
         </is>
       </c>
       <c r="C737" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D737" s="5" t="inlineStr">
         <is>
@@ -17491,17 +17491,17 @@
       </c>
       <c r="E737" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="738">
       <c r="A738" s="4">
-        <v>574</v>
+        <v>530</v>
       </c>
       <c r="B738" s="5" t="inlineStr">
         <is>
-          <t>Yodo</t>
+          <t>Yamato</t>
         </is>
       </c>
       <c r="C738" s="6">
@@ -17514,25 +17514,25 @@
       </c>
       <c r="E738" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="739">
       <c r="A739" s="4">
-        <v>122</v>
+        <v>574</v>
       </c>
       <c r="B739" s="5" t="inlineStr">
         <is>
-          <t>Yorck</t>
+          <t>Yodo</t>
         </is>
       </c>
       <c r="C739" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D739" s="5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="E739" s="7" t="inlineStr">
@@ -17543,57 +17543,57 @@
     </row>
     <row outlineLevel="0" r="740">
       <c r="A740" s="4">
-        <v>693</v>
+        <v>122</v>
       </c>
       <c r="B740" s="5" t="inlineStr">
         <is>
-          <t>Yorktown</t>
+          <t>Yorck</t>
         </is>
       </c>
       <c r="C740" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D740" s="5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E740" s="7" t="inlineStr">
         <is>
-          <t>Aircraft Carrier</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="741">
       <c r="A741" s="4">
-        <v>34</v>
+        <v>693</v>
       </c>
       <c r="B741" s="5" t="inlineStr">
         <is>
-          <t>Yoshino</t>
+          <t>Yorktown</t>
         </is>
       </c>
       <c r="C741" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D741" s="5" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="E741" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Aircraft Carrier</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="742">
       <c r="A742" s="4">
-        <v>479</v>
+        <v>34</v>
       </c>
       <c r="B742" s="5" t="inlineStr">
         <is>
-          <t>Yoshino B</t>
+          <t>Yoshino</t>
         </is>
       </c>
       <c r="C742" s="6">
@@ -17612,15 +17612,15 @@
     </row>
     <row outlineLevel="0" r="743">
       <c r="A743" s="4">
-        <v>296</v>
+        <v>479</v>
       </c>
       <c r="B743" s="5" t="inlineStr">
         <is>
-          <t>Yubari</t>
+          <t>Yoshino B</t>
         </is>
       </c>
       <c r="C743" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D743" s="5" t="inlineStr">
         <is>
@@ -17629,21 +17629,21 @@
       </c>
       <c r="E743" s="7" t="inlineStr">
         <is>
-          <t>Light Cruiser</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="744">
       <c r="A744" s="4">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B744" s="5" t="inlineStr">
         <is>
-          <t>Yudachi</t>
+          <t>Yubari</t>
         </is>
       </c>
       <c r="C744" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D744" s="5" t="inlineStr">
         <is>
@@ -17652,25 +17652,25 @@
       </c>
       <c r="E744" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Light Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="745">
       <c r="A745" s="4">
-        <v>740</v>
+        <v>292</v>
       </c>
       <c r="B745" s="5" t="inlineStr">
         <is>
-          <t>Yueyang</t>
+          <t>Yudachi</t>
         </is>
       </c>
       <c r="C745" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D745" s="5" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="E745" s="7" t="inlineStr">
@@ -17681,19 +17681,19 @@
     </row>
     <row outlineLevel="0" r="746">
       <c r="A746" s="4">
-        <v>28</v>
+        <v>740</v>
       </c>
       <c r="B746" s="5" t="inlineStr">
         <is>
-          <t>Yugumo</t>
+          <t>Yueyang</t>
         </is>
       </c>
       <c r="C746" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D746" s="5" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="E746" s="7" t="inlineStr">
@@ -17704,34 +17704,34 @@
     </row>
     <row outlineLevel="0" r="747">
       <c r="A747" s="4">
-        <v>346</v>
+        <v>28</v>
       </c>
       <c r="B747" s="5" t="inlineStr">
         <is>
-          <t>Yukon</t>
+          <t>Yugumo</t>
         </is>
       </c>
       <c r="C747" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D747" s="5" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="E747" s="7" t="inlineStr">
         <is>
-          <t>Battleship</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="748">
       <c r="A748" s="4">
-        <v>664</v>
+        <v>346</v>
       </c>
       <c r="B748" s="5" t="inlineStr">
         <is>
-          <t>Yumihari</t>
+          <t>Yukon</t>
         </is>
       </c>
       <c r="C748" s="6">
@@ -17739,22 +17739,22 @@
       </c>
       <c r="D748" s="5" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="E748" s="7" t="inlineStr">
         <is>
-          <t>Battle Cruiser</t>
+          <t>Battleship</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="749">
       <c r="A749" s="4">
-        <v>413</v>
+        <v>664</v>
       </c>
       <c r="B749" s="5" t="inlineStr">
         <is>
-          <t>Z-23</t>
+          <t>Yumihari</t>
         </is>
       </c>
       <c r="C749" s="6">
@@ -17762,26 +17762,26 @@
       </c>
       <c r="D749" s="5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="E749" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Battle Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="750">
       <c r="A750" s="4">
-        <v>259</v>
+        <v>413</v>
       </c>
       <c r="B750" s="5" t="inlineStr">
         <is>
-          <t>Z-31</t>
+          <t>Z-23</t>
         </is>
       </c>
       <c r="C750" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D750" s="5" t="inlineStr">
         <is>
@@ -17796,11 +17796,11 @@
     </row>
     <row outlineLevel="0" r="751">
       <c r="A751" s="4">
-        <v>717</v>
+        <v>259</v>
       </c>
       <c r="B751" s="5" t="inlineStr">
         <is>
-          <t>Z-32</t>
+          <t>Z-31</t>
         </is>
       </c>
       <c r="C751" s="6">
@@ -17808,7 +17808,7 @@
       </c>
       <c r="D751" s="5" t="inlineStr">
         <is>
-          <t>Germany D-Day</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E751" s="7" t="inlineStr">
@@ -17819,11 +17819,11 @@
     </row>
     <row outlineLevel="0" r="752">
       <c r="A752" s="4">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B752" s="5" t="inlineStr">
         <is>
-          <t>Z-33</t>
+          <t>Z-32</t>
         </is>
       </c>
       <c r="C752" s="6">
@@ -17842,11 +17842,11 @@
     </row>
     <row outlineLevel="0" r="753">
       <c r="A753" s="4">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B753" s="5" t="inlineStr">
         <is>
-          <t>z-34</t>
+          <t>Z-33</t>
         </is>
       </c>
       <c r="C753" s="6">
@@ -17865,19 +17865,19 @@
     </row>
     <row outlineLevel="0" r="754">
       <c r="A754" s="4">
-        <v>136</v>
+        <v>720</v>
       </c>
       <c r="B754" s="5" t="inlineStr">
         <is>
-          <t>Z-35</t>
+          <t>z-34</t>
         </is>
       </c>
       <c r="C754" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D754" s="5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Germany D-Day</t>
         </is>
       </c>
       <c r="E754" s="7" t="inlineStr">
@@ -17888,19 +17888,19 @@
     </row>
     <row outlineLevel="0" r="755">
       <c r="A755" s="4">
-        <v>718</v>
+        <v>136</v>
       </c>
       <c r="B755" s="5" t="inlineStr">
         <is>
-          <t>Z-38</t>
+          <t>Z-35</t>
         </is>
       </c>
       <c r="C755" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D755" s="5" t="inlineStr">
         <is>
-          <t>Germanty  D -Day</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E755" s="7" t="inlineStr">
@@ -17911,11 +17911,11 @@
     </row>
     <row outlineLevel="0" r="756">
       <c r="A756" s="4">
-        <v>291</v>
+        <v>718</v>
       </c>
       <c r="B756" s="5" t="inlineStr">
         <is>
-          <t>Z-39</t>
+          <t>Z-38</t>
         </is>
       </c>
       <c r="C756" s="6">
@@ -17923,7 +17923,7 @@
       </c>
       <c r="D756" s="5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Germanty  D -Day</t>
         </is>
       </c>
       <c r="E756" s="7" t="inlineStr">
@@ -17934,15 +17934,15 @@
     </row>
     <row outlineLevel="0" r="757">
       <c r="A757" s="4">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="B757" s="5" t="inlineStr">
         <is>
-          <t>Z-44</t>
+          <t>Z-39</t>
         </is>
       </c>
       <c r="C757" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D757" s="5" t="inlineStr">
         <is>
@@ -17957,11 +17957,11 @@
     </row>
     <row outlineLevel="0" r="758">
       <c r="A758" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B758" s="5" t="inlineStr">
         <is>
-          <t>Z-46</t>
+          <t>Z-44</t>
         </is>
       </c>
       <c r="C758" s="6">
@@ -17980,15 +17980,15 @@
     </row>
     <row outlineLevel="0" r="759">
       <c r="A759" s="4">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B759" s="5" t="inlineStr">
         <is>
-          <t>Z-52</t>
+          <t>Z-46</t>
         </is>
       </c>
       <c r="C759" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D759" s="5" t="inlineStr">
         <is>
@@ -18003,11 +18003,11 @@
     </row>
     <row outlineLevel="0" r="760">
       <c r="A760" s="4">
-        <v>584</v>
+        <v>119</v>
       </c>
       <c r="B760" s="5" t="inlineStr">
         <is>
-          <t>Zao</t>
+          <t>Z-52</t>
         </is>
       </c>
       <c r="C760" s="6">
@@ -18015,30 +18015,30 @@
       </c>
       <c r="D760" s="5" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E760" s="7" t="inlineStr">
         <is>
-          <t>Heavy Cruiser</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="761">
       <c r="A761" s="4">
-        <v>83</v>
+        <v>584</v>
       </c>
       <c r="B761" s="5" t="inlineStr">
         <is>
-          <t>Zara</t>
+          <t>Zao</t>
         </is>
       </c>
       <c r="C761" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D761" s="5" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="E761" s="7" t="inlineStr">
@@ -18049,42 +18049,42 @@
     </row>
     <row outlineLevel="0" r="762">
       <c r="A762" s="4">
-        <v>238</v>
+        <v>83</v>
       </c>
       <c r="B762" s="5" t="inlineStr">
         <is>
-          <t>ZF-6</t>
+          <t>Zara</t>
         </is>
       </c>
       <c r="C762" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D762" s="5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E762" s="7" t="inlineStr">
         <is>
-          <t>Destroyer</t>
+          <t>Heavy Cruiser</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="763">
       <c r="A763" s="4">
-        <v>723</v>
+        <v>238</v>
       </c>
       <c r="B763" s="5" t="inlineStr">
         <is>
-          <t>Zhu Que</t>
+          <t>ZF-6</t>
         </is>
       </c>
       <c r="C763" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D763" s="5" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E763" s="7" t="inlineStr">
@@ -18095,11 +18095,11 @@
     </row>
     <row outlineLevel="0" r="764">
       <c r="A764" s="4">
-        <v>458</v>
+        <v>723</v>
       </c>
       <c r="B764" s="5" t="inlineStr">
         <is>
-          <t>Zieten</t>
+          <t>Zhu Que</t>
         </is>
       </c>
       <c r="C764" s="6">
@@ -18107,33 +18107,56 @@
       </c>
       <c r="D764" s="5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="E764" s="7" t="inlineStr">
         <is>
-          <t>Battle Cruiser</t>
+          <t>Destroyer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="765">
       <c r="A765" s="4">
+        <v>458</v>
+      </c>
+      <c r="B765" s="5" t="inlineStr">
+        <is>
+          <t>Zieten</t>
+        </is>
+      </c>
+      <c r="C765" s="6">
+        <v>8</v>
+      </c>
+      <c r="D765" s="5" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E765" s="7" t="inlineStr">
+        <is>
+          <t>Battle Cruiser</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="766">
+      <c r="A766" s="4">
         <v>738</v>
       </c>
-      <c r="B765" s="5" t="inlineStr">
+      <c r="B766" s="5" t="inlineStr">
         <is>
           <t>Zorky</t>
         </is>
       </c>
-      <c r="C765" s="6">
+      <c r="C766" s="6">
         <v>11</v>
       </c>
-      <c r="D765" s="5" t="inlineStr">
+      <c r="D766" s="5" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="E765" s="7" t="inlineStr">
+      <c r="E766" s="7" t="inlineStr">
         <is>
           <t>Destroyer</t>
         </is>
